--- a/DMSNewVSale_2025-12-01_16-10.xlsx
+++ b/DMSNewVSale_2025-12-01_16-10.xlsx
@@ -626,7 +626,7 @@
     <t>لزقه النمر بسعر القطعه</t>
   </si>
   <si>
-    <t>58:0</t>
+    <t>57:0</t>
   </si>
   <si>
     <t>مجموعه برد</t>
@@ -3418,10 +3418,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>11</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3492,7 +3492,7 @@
     </row>
     <row r="74" ht="26.25" customHeight="1">
       <c r="N74" s="13">
-        <v>4150.1099999999997</v>
+        <v>4165.1099999999997</v>
       </c>
       <c r="O74" s="13"/>
       <c r="P74" s="13"/>
